--- a/2-pd.read.excel/data.xlsx
+++ b/2-pd.read.excel/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\建模题库\2020年\王志勇\中小微问题定稿\中小微贷款问题（最后定稿）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gloridust\Documents\GitHub\DataAnalyzeLesson\2-pd.read.excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409FAE7F-3134-4F60-8963-9B4DF466797D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69347BEF-75AF-4FB2-BD76-DDD79C0A2070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1553" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>贷款年利率</t>
-  </si>
-  <si>
-    <t>信誉评级A</t>
-  </si>
-  <si>
-    <t>信誉评级B</t>
-  </si>
-  <si>
-    <t>信誉评级C</t>
   </si>
   <si>
     <t>客户流失率</t>
@@ -115,11 +106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,450 +453,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="4" width="12.875"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="4" width="12.86328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0.04</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B3" s="1">
         <v>9.4574126205756601E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C3" s="1">
         <v>6.67995833242854E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D3" s="1">
         <v>6.8725306488372703E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>4.65E-2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B4" s="1">
         <v>0.13572718312478699</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C4" s="1">
         <v>0.13505205955038199</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D4" s="1">
         <v>0.12209902892669899</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B5" s="1">
         <v>0.224603353581977</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C5" s="1">
         <v>0.20658008001320799</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D5" s="1">
         <v>0.18125214631043901</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5.45E-2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B6" s="1">
         <v>0.30203810158958599</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C6" s="1">
         <v>0.27681229324512202</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D6" s="1">
         <v>0.263302863236199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B7" s="1">
         <v>0.34731566809199399</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C7" s="1">
         <v>0.30288340107408102</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D7" s="1">
         <v>0.29018909826487099</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B8" s="1">
         <v>0.41347176997733998</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C8" s="1">
         <v>0.37021585207690799</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D8" s="1">
         <v>0.34971559009452102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B9" s="1">
         <v>0.44789097258475002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C9" s="1">
         <v>0.40629666819652799</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D9" s="1">
         <v>0.39077168277653102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B10" s="1">
         <v>0.49763445343534402</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C10" s="1">
         <v>0.45829529495083399</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D10" s="1">
         <v>0.45723806977773701</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B11" s="1">
         <v>0.51109661198203504</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C11" s="1">
         <v>0.50871869166986305</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D11" s="1">
         <v>0.49266043310035301</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>7.85E-2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B12" s="1">
         <v>0.57339308696869895</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C12" s="1">
         <v>0.54440883688837205</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D12" s="1">
         <v>0.51366023851938702</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B13" s="1">
         <v>0.60949211463848696</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C13" s="1">
         <v>0.54849395759238695</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D13" s="1">
         <v>0.53024870562998005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B14" s="1">
         <v>0.65294477363827497</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C14" s="1">
         <v>0.58876569608173401</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D14" s="1">
         <v>0.58776240816813996</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B15" s="1">
         <v>0.66754184269540495</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C15" s="1">
         <v>0.62576457589825096</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D15" s="1">
         <v>0.59009704473541802</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B16" s="1">
         <v>0.69477992076096895</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C16" s="1">
         <v>0.63560514629782205</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D16" s="1">
         <v>0.64299365559702404</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B17" s="1">
         <v>0.708302023264193</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C17" s="1">
         <v>0.67352742412031896</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D17" s="1">
         <v>0.65883941575334704</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>0.10249999999999999</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B18" s="1">
         <v>0.73127540131166402</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C18" s="1">
         <v>0.69692543087857795</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D18" s="1">
         <v>0.69687057313212397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>0.1065</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B19" s="1">
         <v>0.77509140498586804</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C19" s="1">
         <v>0.70531599251125099</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D19" s="1">
         <v>0.71910355239406398</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>0.1105</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B20" s="1">
         <v>0.79822736764976299</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C20" s="1">
         <v>0.74293632626681005</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D20" s="1">
         <v>0.71110123661152003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>0.1145</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B21" s="1">
         <v>0.79052726642412796</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C21" s="1">
         <v>0.776400728768043</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D21" s="1">
         <v>0.75062765613264004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>0.11849999999999999</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B22" s="1">
         <v>0.81519698647017402</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C22" s="1">
         <v>0.76202259500895497</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D22" s="1">
         <v>0.77681604322881603</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>0.1225</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B23" s="1">
         <v>0.81442102887280599</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C23" s="1">
         <v>0.79150369713070001</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D23" s="1">
         <v>0.78448051205983105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>0.1265</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B24" s="1">
         <v>0.85481109686020595</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C24" s="1">
         <v>0.81499893253009503</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D24" s="1">
         <v>0.79556627414074899</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>0.1305</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B25" s="1">
         <v>0.87031734327849397</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C25" s="1">
         <v>0.82229786149515005</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D25" s="1">
         <v>0.82005143364594701</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>0.13450000000000001</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B26" s="1">
         <v>0.871428085424653</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C26" s="1">
         <v>0.835301602280488</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D26" s="1">
         <v>0.83228842150597304</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>0.13850000000000001</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B27" s="1">
         <v>0.88592594517593903</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C27" s="1">
         <v>0.845747745401636</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D27" s="1">
         <v>0.84408987538601199</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>0.14249999999999999</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B28" s="1">
         <v>0.87443468168688498</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C28" s="1">
         <v>0.842070843722875</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D28" s="1">
         <v>0.83697432577586695</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>0.14649999999999999</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B29" s="1">
         <v>0.90272590862995605</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C29" s="1">
         <v>0.86815953558998704</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D29" s="1">
         <v>0.87255895731137101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>0.15</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B30" s="1">
         <v>0.92206068695249399</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C30" s="1">
         <v>0.88586491899999498</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D30" s="1">
         <v>0.89516473866203095</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,7 +897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,7 +911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
